--- a/materials/exp_lists/session_1_0.xlsx
+++ b/materials/exp_lists/session_1_0.xlsx
@@ -176,7 +176,7 @@
     <t>topeme = терка?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>стрела</t>
@@ -521,10 +521,10 @@
     <t>kasfine = качели?</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = стрела?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = стрела?</t>
   </si>
   <si>
     <t>akufu.wav</t>
